--- a/系统码树状图.xlsx
+++ b/系统码树状图.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHKN\Desktop\设备编码格式检查\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHKN\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD7A30B-8606-4256-AFB6-0FFC6F2C2D3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CBF0CA-6CB9-4AAA-9C6C-A8EF0767266C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="179">
   <si>
     <t>第2级全厂码</t>
   </si>
@@ -571,6 +571,16 @@
   <si>
     <t>AEG02</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>储能系统</t>
+  </si>
+  <si>
+    <t>NQB01</t>
+  </si>
+  <si>
+    <t>储能区
+C01</t>
   </si>
 </sst>
 </file>
@@ -748,7 +758,27 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1147,8 +1177,8 @@
   <dimension ref="A1:C302"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1912,6 +1942,17 @@
         <v>150</v>
       </c>
     </row>
+    <row r="84" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
@@ -2885,11 +2926,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3214,25 +3255,36 @@
         <v>150</v>
       </c>
     </row>
+    <row r="35" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C9 C11:C34">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:D6">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
